--- a/Output/March/productivity_agent_valid/productivity_agent_2022-03-11_valid.xlsx
+++ b/Output/March/productivity_agent_valid/productivity_agent_2022-03-11_valid.xlsx
@@ -21002,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1382</v>
+        <v>1492</v>
       </c>
       <c r="O63">
         <v>1895</v>
@@ -21116,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="AZ63">
-        <v>605.2554744525547</v>
+        <v>653.4306569343066</v>
       </c>
       <c r="BA63">
         <v>867.93893129771</v>
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="CL63">
-        <v>0.7120652640618291</v>
+        <v>0.7687419493344784</v>
       </c>
       <c r="CM63">
         <v>1.084923664122138</v>
@@ -21275,7 +21275,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.7044055399937752</v>
+        <v>0.7180999066293183</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1622</v>
+        <v>1657</v>
       </c>
       <c r="O65">
         <v>3634</v>
@@ -21750,7 +21750,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>589.8181818181819</v>
+        <v>602.5454545454546</v>
       </c>
       <c r="BA65">
         <v>939.8275862068964</v>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="CL65">
-        <v>0.6939037433155081</v>
+        <v>0.7088770053475937</v>
       </c>
       <c r="CM65">
         <v>1.17478448275862</v>
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="DA65">
-        <v>0.884736231008491</v>
+        <v>0.8895334897177999</v>
       </c>
     </row>
     <row r="66" spans="1:105">
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>201.1267605633803</v>
+        <v>221.4084507042253</v>
       </c>
       <c r="BA67">
         <v>0</v>
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="CL67">
-        <v>0.2366197183098592</v>
+        <v>0.2604805302402651</v>
       </c>
       <c r="CM67">
         <v>0</v>
@@ -22543,7 +22543,7 @@
         <v>0</v>
       </c>
       <c r="DA67">
-        <v>0.4465628961111393</v>
+        <v>0.4517595760100928</v>
       </c>
     </row>
     <row r="68" spans="1:105">
